--- a/planilhas_para_analise.xlsx
+++ b/planilhas_para_analise.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="6600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19920" windowHeight="6600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,8 @@
     <pivotCache cacheId="2" r:id="rId10"/>
     <pivotCache cacheId="4" r:id="rId11"/>
     <pivotCache cacheId="45" r:id="rId12"/>
-    <pivotCache cacheId="133" r:id="rId13"/>
-    <pivotCache cacheId="136" r:id="rId14"/>
+    <pivotCache cacheId="194" r:id="rId13"/>
+    <pivotCache cacheId="202" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
@@ -99,30 +99,8 @@
 </connections>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <metadataStrings count="2">
-    <s v="ThisWorkbookDataModel"/>
-    <s v="{[endereco_area].[nome_cidade].[All]}"/>
-  </metadataStrings>
-  <mdxMetadata count="1">
-    <mdx n="0" f="s">
-      <ms ns="1" c="0"/>
-    </mdx>
-  </mdxMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="448">
   <si>
     <t>id_cliente</t>
   </si>
@@ -1456,9 +1434,6 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>nome_cidade</t>
-  </si>
-  <si>
     <t>Niterói</t>
   </si>
   <si>
@@ -1469,9 +1444,6 @@
   </si>
   <si>
     <t>São Gonçalo</t>
-  </si>
-  <si>
-    <t>All</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1498,262 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="106">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="17" formatCode="#\ ?/?"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -1605,10 +1832,10 @@
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Style 1" pivot="0" table="0" count="1"/>
     <tableStyle name="Slicer Style 2" pivot="0" table="0" count="1">
-      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="102"/>
     </tableStyle>
     <tableStyle name="verde" pivot="0" table="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="103"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1665,37 +1892,6 @@
     <c:fmtId val="11"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -2163,6 +2359,156 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2175,11 +2521,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Análise 5'!$B$3</c:f>
+              <c:f>'Análise 5'!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Alves</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2196,77 +2542,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Análise 5'!$A$4:$A$14</c:f>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Alves</c:v>
+                  <c:v>Duque de Caxias</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cardoso</c:v>
+                  <c:v>Niterói</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Correia</c:v>
+                  <c:v>Nova Iguaçu</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cunha</c:v>
+                  <c:v>Rio de Janeiro</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Farias Verde</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Martins</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Martins do Amparo</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pinto de da Luz</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Porto</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Rocha Alegre</c:v>
+                  <c:v>São Gonçalo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Análise 5'!$B$4:$B$14</c:f>
+              <c:f>'Análise 5'!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
                   <c:v>92.519996643066406</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.330001831054688</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68.989997863769531</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>87.330001831054688</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.330001831054688</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.330001831054688</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.279998779296875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61.169998168945313</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87.330001831054688</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>61.169998168945313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,6 +2578,599 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D409-4C89-B1C3-A2B47296DE3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cardoso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="3">
+                  <c:v>87.330001831054688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33E3-4133-8592-963ABD938888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>68.989997863769531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-33E3-4133-8592-963ABD938888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cunha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="3">
+                  <c:v>87.330001831054688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-33E3-4133-8592-963ABD938888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farias Verde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="3">
+                  <c:v>87.330001831054688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-33E3-4133-8592-963ABD938888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Martins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="3">
+                  <c:v>87.330001831054688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-33E3-4133-8592-963ABD938888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Martins do Amparo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$H$5:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>59.279998779296875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-33E3-4133-8592-963ABD938888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pinto de da Luz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>61.169998168945313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-33E3-4133-8592-963ABD938888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$J$3:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$J$5:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="3">
+                  <c:v>87.330001831054688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-33E3-4133-8592-963ABD938888}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$K$3:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rocha Alegre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$K$5:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>61.169998168945313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-33E3-4133-8592-963ABD938888}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5393,6 +6290,176 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -5413,11 +6480,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Análise 5'!$B$3</c:f>
+              <c:f>'Análise 5'!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Alves</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5522,12 +6589,67 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>92.519996643066406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A3F8-44FC-A1EA-E4F3ABFA839D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cardoso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5538,13 +6660,11 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5555,13 +6675,11 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5572,13 +6690,11 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="8"/>
+            <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5589,13 +6705,11 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="9"/>
+            <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -5607,84 +6721,1082 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Análise 5'!$A$4:$A$14</c:f>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Alves</c:v>
+                  <c:v>Duque de Caxias</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cardoso</c:v>
+                  <c:v>Niterói</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Correia</c:v>
+                  <c:v>Nova Iguaçu</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Cunha</c:v>
+                  <c:v>Rio de Janeiro</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Farias Verde</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Martins</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Martins do Amparo</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Pinto de da Luz</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Porto</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Rocha Alegre</c:v>
+                  <c:v>São Gonçalo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Análise 5'!$B$4:$B$14</c:f>
+              <c:f>'Análise 5'!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>92.519996643066406</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>87.330001831054688</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68.989997863769531</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
                 <c:pt idx="3">
                   <c:v>87.330001831054688</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87.330001831054688</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>87.330001831054688</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.279998779296875</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61.169998168945313</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>87.330001831054688</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>61.169998168945313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-A3F8-44FC-A1EA-E4F3ABFA839D}"/>
+              <c16:uniqueId val="{0000000A-9787-4E64-B3EE-41D5E2F61386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Correia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="2">
+                  <c:v>68.989997863769531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-9787-4E64-B3EE-41D5E2F61386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cunha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="3">
+                  <c:v>87.330001831054688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-9787-4E64-B3EE-41D5E2F61386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Farias Verde</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="3">
+                  <c:v>87.330001831054688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-9787-4E64-B3EE-41D5E2F61386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Martins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="3">
+                  <c:v>87.330001831054688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-9787-4E64-B3EE-41D5E2F61386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Martins do Amparo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$H$5:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4">
+                  <c:v>59.279998779296875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-9787-4E64-B3EE-41D5E2F61386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pinto de da Luz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>61.169998168945313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-9787-4E64-B3EE-41D5E2F61386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$J$3:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$J$5:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="3">
+                  <c:v>87.330001831054688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-9787-4E64-B3EE-41D5E2F61386}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise 5'!$K$3:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rocha Alegre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Análise 5'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Duque de Caxias</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Niterói</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nova Iguaçu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>São Gonçalo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise 5'!$K$5:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>61.169998168945313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-9787-4E64-B3EE-41D5E2F61386}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9121,16 +11233,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>818</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>37798</xdr:rowOff>
+      <xdr:colOff>505643</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>113998</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10838,7 +12950,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Ari Guilherme Gomes de Oliveira" refreshedDate="44523.821517824072" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Ari Guilherme Gomes de Oliveira" refreshedDate="44523.841796527777" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="3">
     <cacheField name="[endereco_area].[nome_bairo].[nome_bairo]" caption="nome_bairo" numFmtId="0" hierarchy="31" level="1">
@@ -11088,13 +13200,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Ari Guilherme Gomes de Oliveira" refreshedDate="44523.821518750003" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Ari Guilherme Gomes de Oliveira" refreshedDate="44523.841939699072" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="3">
-    <cacheField name="[endereco_area].[nome_cidade].[nome_cidade]" caption="nome_cidade" numFmtId="0" hierarchy="30" level="1">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[Measures].[Average of percentual_vacinacao]" caption="Average of percentual_vacinacao" numFmtId="0" hierarchy="66" level="32767"/>
     <cacheField name="[endereco_area].[nome_bairo].[nome_bairo]" caption="nome_bairo" numFmtId="0" hierarchy="31" level="1">
       <sharedItems count="10">
         <s v="Alves"/>
@@ -11109,6 +13217,16 @@
         <s v="Rocha Alegre"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[endereco_area].[nome_cidade].[nome_cidade]" caption="nome_cidade" numFmtId="0" hierarchy="30" level="1">
+      <sharedItems count="5">
+        <s v="Duque de Caxias"/>
+        <s v="Niterói"/>
+        <s v="Nova Iguaçu"/>
+        <s v="Rio de Janeiro"/>
+        <s v="São Gonçalo"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Average of percentual_vacinacao]" caption="Average of percentual_vacinacao" numFmtId="0" hierarchy="66" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="70">
     <cacheHierarchy uniqueName="[cliente].[chave_cliente]" caption="chave_cliente" attribute="1" defaultMemberUniqueName="[cliente].[chave_cliente].[All]" allUniqueName="[cliente].[chave_cliente].[All]" dimensionUniqueName="[cliente]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -11144,17 +13262,17 @@
     <cacheHierarchy uniqueName="[endereco_area].[nome_cidade]" caption="nome_cidade" attribute="1" defaultMemberUniqueName="[endereco_area].[nome_cidade].[All]" allUniqueName="[endereco_area].[nome_cidade].[All]" dimensionUniqueName="[endereco_area]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[endereco_area].[nome_bairo]" caption="nome_bairo" attribute="1" defaultMemberUniqueName="[endereco_area].[nome_bairo].[All]" allUniqueName="[endereco_area].[nome_bairo].[All]" dimensionUniqueName="[endereco_area]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[endereco_area].[codigo_cidade]" caption="codigo_cidade" attribute="1" defaultMemberUniqueName="[endereco_area].[codigo_cidade].[All]" allUniqueName="[endereco_area].[codigo_cidade].[All]" dimensionUniqueName="[endereco_area]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[endereco_area].[percentual_vacinacao]" caption="percentual_vacinacao" attribute="1" defaultMemberUniqueName="[endereco_area].[percentual_vacinacao].[All]" allUniqueName="[endereco_area].[percentual_vacinacao].[All]" dimensionUniqueName="[endereco_area]" displayFolder="" count="0" memberValueDatatype="5" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[endereco_area].[percentual_vacinacao]" caption="percentual_vacinacao" attribute="1" defaultMemberUniqueName="[endereco_area].[percentual_vacinacao].[All]" allUniqueName="[endereco_area].[percentual_vacinacao].[All]" dimensionUniqueName="[endereco_area]" displayFolder="" count="2" memberValueDatatype="5" unbalanced="0"/>
     <cacheHierarchy uniqueName="[endereco_area].[status]" caption="status" attribute="1" defaultMemberUniqueName="[endereco_area].[status].[All]" allUniqueName="[endereco_area].[status].[All]" dimensionUniqueName="[endereco_area]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[endereco_area].[effective_startdate]" caption="effective_startdate" attribute="1" time="1" defaultMemberUniqueName="[endereco_area].[effective_startdate].[All]" allUniqueName="[endereco_area].[effective_startdate].[All]" dimensionUniqueName="[endereco_area]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[endereco_area].[effective_enddate]" caption="effective_enddate" attribute="1" time="1" defaultMemberUniqueName="[endereco_area].[effective_enddate].[All]" allUniqueName="[endereco_area].[effective_enddate].[All]" dimensionUniqueName="[endereco_area]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
@@ -11261,7 +13379,7 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Average of percentual_vacinacao]" caption="Average of percentual_vacinacao" measure="1" displayFolder="" measureGroup="endereco_area" count="0" oneField="1" hidden="1">
       <fieldsUsage count="1">
-        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
@@ -12153,7 +14271,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="133" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="194" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A1:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -12259,119 +14377,119 @@
     <dataField name="Sum of percentual_vacinacao" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="17">
-    <format dxfId="0">
+    <format dxfId="85">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="86">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="87">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="88">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="89">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="90">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="91">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="92">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="93">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="94">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="95">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="96">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="97">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="98">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="99">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="100">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="101">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
@@ -12513,16 +14631,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="136" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="202" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="A3:L10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField axis="axisPage" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="11">
         <item x="0"/>
         <item x="1"/>
@@ -12537,11 +14649,45 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="11">
     <i>
       <x/>
     </i>
@@ -12575,49 +14721,187 @@
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="30" name="[endereco_area].[nome_cidade].[All]" cap="All"/>
-  </pageFields>
   <dataFields count="1">
-    <dataField name="Average of percentual_vacinacao" fld="1" subtotal="average" baseField="0" baseItem="2"/>
+    <dataField name="Average of percentual_vacinacao" fld="2" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="11" format="26" series="1">
+  <chartFormats count="20">
+    <chartFormat chart="8" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="10" format="26" series="1">
+    <chartFormat chart="8" format="21" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="9" format="25" series="1">
+    <chartFormat chart="11" format="28" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="8" format="19" series="1">
+    <chartFormat chart="11" format="29" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="35" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="36" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -12697,8 +14981,11 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="31"/>
+    <rowHierarchyUsage hierarchyUsage="30"/>
   </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="31"/>
+  </colHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
@@ -13048,8 +15335,8 @@
     <tableColumn id="4" uniqueName="4" name="CPF" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="endereco" queryTableFieldId="5"/>
     <tableColumn id="6" uniqueName="6" name="status" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="effective_startdate" queryTableFieldId="7" dataDxfId="20"/>
-    <tableColumn id="8" uniqueName="8" name="effective_enddate" queryTableFieldId="8" dataDxfId="19"/>
+    <tableColumn id="7" uniqueName="7" name="effective_startdate" queryTableFieldId="7" dataDxfId="105"/>
+    <tableColumn id="8" uniqueName="8" name="effective_enddate" queryTableFieldId="8" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13320,7 +15607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -16305,7 +18592,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B3" s="5">
         <v>92.519996643066406</v>
@@ -16321,7 +18608,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B5" s="5">
         <v>87.330001831054688</v>
@@ -16337,7 +18624,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B7" s="5">
         <v>68.989997863769531</v>
@@ -16353,7 +18640,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B9" s="5">
         <v>87.330001831054688</v>
@@ -16369,7 +18656,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B11" s="5">
         <v>87.330001831054688</v>
@@ -16385,7 +18672,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B13" s="5">
         <v>87.330001831054688</v>
@@ -16401,7 +18688,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B15" s="5">
         <v>59.279998779296875</v>
@@ -16433,7 +18720,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B19" s="5">
         <v>87.330001831054688</v>
@@ -16470,19 +18757,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A3:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="41.5703125" customWidth="1"/>
     <col min="23" max="23" width="11.28515625" customWidth="1"/>
@@ -16512,107 +18805,197 @@
     <col min="48" max="48" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" t="s">
+        <v>434</v>
+      </c>
+      <c r="F4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H4" t="s">
+        <v>437</v>
+      </c>
+      <c r="I4" t="s">
+        <v>438</v>
+      </c>
+      <c r="J4" t="s">
+        <v>439</v>
+      </c>
+      <c r="K4" t="s">
+        <v>440</v>
+      </c>
+      <c r="L4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>61.169998168945313</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
+        <v>61.169998168945313</v>
+      </c>
+      <c r="L5" s="5">
+        <v>61.169998168945313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B1" t="s" vm="1">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="B6" s="5">
         <v>92.519996643066406</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5">
+        <v>92.519996643066406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>68.989997863769531</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5">
+        <v>68.989997863769531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
         <v>87.330001831054688</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>87.330001831054688</v>
+      </c>
+      <c r="F8" s="5">
+        <v>87.330001831054688</v>
+      </c>
+      <c r="G8" s="5">
+        <v>87.330001831054688</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
+        <v>87.330001831054688</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
+        <v>87.330001831054688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <v>59.279998779296875</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
+        <v>59.279998779296875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B10" s="5">
+        <v>92.519996643066406</v>
+      </c>
+      <c r="C10" s="5">
+        <v>87.330001831054688</v>
+      </c>
+      <c r="D10" s="5">
         <v>68.989997863769531</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="E10" s="5">
         <v>87.330001831054688</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="F10" s="5">
         <v>87.330001831054688</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="G10" s="5">
         <v>87.330001831054688</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="H10" s="5">
         <v>59.279998779296875</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="I10" s="5">
         <v>61.169998168945313</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="J10" s="5">
         <v>87.330001831054688</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="K10" s="5">
         <v>61.169998168945313</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="L10" s="5">
         <v>77.97799987792969</v>
       </c>
     </row>
